--- a/finetuning/it_datasets/it_dataset/it_kairouan_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_kairouan_dataset.xlsx
@@ -658,9 +658,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Restaurant, check out GO Cafe located at GO Cafe, Medina de, Rue Mouley Taieb, en face de la Mosquee des Trois Portes Cite Jraba, Kairouan 3100. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant, Cafe categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at http://www.gocafe.tn/ or call them at 24 101 831.</t>
+          <t>GO Cafe, located in the heart of Kairouan, Tunisia, is a renowned eatery that seamlessly blends modern and traditional vibes. With a rating of 4.8/5 based on 63 reviews, it has garnered appreciation for its delectable Tunisian cuisine, cozy atmosphere, and prime location. Its proximity to the Medina and the Mosquee des Trois Portes offers patrons a convenient base to explore the city's historical and cultural treasures.</t>
         </is>
       </c>
     </row>
@@ -763,9 +761,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to relax and enjoy a bite to eat, check out Chez Mamie on 270 rue om iyadh houmet jemaa, kairouan. 
-This top-rated cafe is perfect for any cafe lover and offers a variety of brunch options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at or call them at 50 333 411.</t>
+          <t>"Chez Mamie" is a popular cafe in Kairouan, Tunisia. It offers a cozy atmosphere, with indoor and outdoor seating. The menu includes a variety of breakfast and brunch items, as well as freshly squeezed smoothies. The cafe is located conveniently close to the Great Mosque of Kairouan, making it a great spot to grab a bite before or after exploring the historic site. With an impressive 4.4 rating based on 55 reviews, Chez Mamie is a top-rated destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -864,7 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great cafe, check out cafe hermess located at M39J+VP7 cafe hermess, Av. Mongi Slim, Kairouan. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:00-23:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/caf%C3%A9+hermess/data=!4m7!3m6!1s0x12fdc55596aa4293:0x251d50d297523f53!8m2!3d35.6696631!4d10.0817934!16s%2Fg%2F11c20c35b7!19sChIJk0KqllXF_RIRUz9Sl9JQHSU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Café Hermès is a popular cafe located in Kairouan. Its address is M39J+VP7 cafe hermess, Av. Mongi Slim, Kairouan. It operates from 4:00 am to 11:00 pm every day, offering a cozy ambiance for its customers. Café Hermès has been positively reviewed online, with a rating of 4.0.</t>
         </is>
       </c>
     </row>
@@ -971,7 +967,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Restaurant de sundae, check out Ci Gusta Kairouan located at Av. Mohamed Ibn Sahnoun. This must-visit spot has a 4.0 rating and offers a range of categories to choose from. It's open daily from 08:30-22:00. For more details, visit their website at http://www.cigusta.com/ or call them at 25 450 864.</t>
+          <t>Ci Gusta Kairouan is a highly rated sundae restaurant located on Av. Mohamed Ibn Sahnoun in Kairouan, Tunisia. It's a popular spot for enjoying delicious pizzas, waffles, and other treats. The restaurant has a cozy atmosphere and friendly staff. It operates daily from 8:30 AM to 10:00 PM and is a popular destination for both locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1074,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a great cafe experience, check out Cafe Chic located at M3MW+MXW, Kairouan. This highly-rated destination is perfect for cafe lovers and offers a cozy ambience to relax and enjoy your favorite beverages and snacks. With a 4.2 rating, it's a must-visit spot for locals and visitors alike. Cafe Chic is open daily from 7:00 AM to midnight, so you can visit at your convenience. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, you can call them at 77 277 819.</t>
+          <t>Cafe Chic is a popular cafe located in the heart of Kairouan. It offers a wide variety of delicious food and drinks, as well as a cozy atmosphere and friendly service. The cafe is open daily from 7:00 AM to midnight, and it is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1173,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Cafe Les Veterants located at M4W3+7G5 Cafe Les Veterants, Kairouan. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Les+V%C3%A9t%C3%A9rants/data=!4m7!3m6!1s0x12fdc512ba655673:0x16bc57e6cdc767bb!8m2!3d35.6956325!4d10.1038599!16s%2Fg%2F1td10g_6!19sChIJc1ZluhLF_RIRu2fHzeZXvBY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Les Veterants is a 4-star rated cafe located in kairouan. It's open from 6am to 11pm everyday. It has 18 reviews and is featured in the Cafe category.</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1276,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Cafe, check out Fratello Cafe located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan. This popular destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at https://www.google.com/maps/place/Fratello+Caf%C3%A9/data=!4m7!3m6!1s0x12fdc548369bc947:0x33e84e2196f31505!8m2!3d35.6726728!4d10.101927!16s%2Fg%2F11gc6brw12!19sChIJR8mbNkjF_RIRBRXzliFO6DM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 77 229 270.</t>
+          <t>Fratello Cafe is a highly-rated cafe located in the heart of Kairouan, Tunisia. It offers a wide range of delicious food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at M4F2+3Q7 Fratello Cafe, Av. de La Republique, Kairouan, and can be reached by phone at 77 229 270.</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1375,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Cafe Taktak located at M4F2+H9H Cafe Taktak, Av. Du 20 Mars, Kairouan. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 35.672837383891, 10.100961858317. For more details, visit their website at https://www.google.com/maps/place/Cafe+Taktak/data=!4m7!3m6!1s0x12fdc5486f53c97f:0xc5dcc7689929d0d8!8m2!3d35.6739471!4d10.1009856!16s%2Fg%2F11hbqds0qv!19sChIJf8lTb0jF_RIR2NApmWjH3MU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Taktak is a cafe located in Kairouan, Tunisia at 35.672837383891, 10.100961858317. It offers a variety of cafe-style food and beverages and is open from 05:00 to 23:00 every day. The cafe has a 4.9-star rating on Google based on 12 reviews.</t>
         </is>
       </c>
     </row>
@@ -1486,9 +1482,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Espace Ben Rejeb located at Espace Ben Rejeb, street about zamaa lbalawi, Av. de la Republique, Kairouan 3100. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at https://www.ben-rejeb.com/ or call them at 98 507 533.</t>
+          <t>Espace Ben Rejeb is a cafe located in Kairouan, Tunisia. It offers a relaxing atmosphere with a rating of 4.0, based on 11 reviews. Situated at 35.673189168275 latitude and 10.102536932089 longitude, it is easily accessible. Espace Ben Rejeb's website, https://www.ben-rejeb.com/, offers additional information and reservations. Unfortunately, no specific description was provided.</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1581,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a cozy cafe, visit Miami located at Rue Des Aglabiles. This top-rated destination is perfect for coffee lovers and has a 4.2 rating. It's open from 8 AM to 9 PM daily. To get there, use the GPS coordinates: (35.6727967, 10.0949059).</t>
+          <t>Miami, a quaint cafe situated in a peaceful area of Kairouan, Tunisia, invites you to unwind and indulge in the aroma of freshly brewed coffee. Its inviting atmosphere and friendly staff welcome locals and travelers alike. Located conveniently at coordinates (35.6727967, 10.0949059), Miami is a perfect destination for a morning pick-me-up or a leisurely afternoon break.</t>
         </is>
       </c>
     </row>
@@ -1682,9 +1676,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out City Lounge cafe located at City Lounge cafe, afh 1 kairouan. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at https://www.google.com/maps/place/City+Lounge+cafe/data=!4m7!3m6!1s0x12fdc577ed0bf1f3:0x2f2ae54ba8204799!8m2!3d35.6885427!4d10.0946527!16s%2Fg%2F11nrwt1t1d!19sChIJ8_EL7XfF_RIRmUcgqEvlKi8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>In the heart of Kairouan lies the charming City Lounge Cafe, a haven for coffee and tea lovers. Located at (35.6885427, 10.0946527), this cafe offers a cozy atmosphere with a focus on providing delicious beverages. With a rating of 4.0 from 7 reviews, it is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1779,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to relax and enjoy a cup of tea, check out mqh~ `bd llh located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan. This top-rated teahouse offers a cozy atmosphere and a wide selection of teas to choose from. With a rating of 4.3, it's a must-visit spot for tea lovers. It's open 24 hours a day, so you can enjoy a cup of tea whenever you need one. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>mqh~ `bd llh is a popular tea room located in Kairouan, Tunisia. It has received a 4.3 rating from 6 reviews, indicating that customers generally have a positive experience there. The tea room is open 24 hours a day and offers a variety of tea and other beverages. It is located at M38C+PG7 mqh~ `bd llh, Av. Mongi Slim, Kairouan, and can be contacted by phone at 50 046 744.</t>
         </is>
       </c>
     </row>
@@ -1886,8 +1878,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Cafe La Terrasse located at Cafe La Terrasse, Kairouan.
-This top-rated destination is perfect for Cafe lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on Wednesdays. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+La+Terrasse/data=!4m7!3m6!1s0x12fdc5699d91d043:0xe47ac4ca4f025567!8m2!3d35.6890217!4d10.0966971!16s%2Fg%2F11cs3q6zkc!19sChIJQ9CRnWnF_RIRZ1UCT8rEeuQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe La Terrasse is a cafe located in Kairouan, Tunisia. It is open from 9:00 AM to 5:00 PM from Sunday to Saturday and has a 4.6 rating based on 5 reviews. You can find Cafe La Terrasse on Google Maps by clicking the link https://www.google.com/maps/place/Caf%C3%A9+La+Terrasse/data=!4m7!3m6!1s0x12fdc5699d91d043:0xe47ac4ca4f025567!8m2!3d35.6890217!4d10.0966971!16s%2Fg%2F11cs3q6zkc!19sChIJQ9CRnWnF_RIRZ1UCT8rEeuQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -1986,9 +1977,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Cafe in beb el khoukha located at M4J3+4PF Cafe in beb el khoukha. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 35.6796035, 10.1047369. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+in+beb+el+khoukha/data=!4m7!3m6!1s0x12fdc58d9326712f:0x3617acb3e8c064a9!8m2!3d35.6803172!4d10.1042985!16s%2Fg%2F11s854r3ps!19sChIJL3Emk43F_RIRqWTA6LOsFzY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at Not provided.</t>
+          <t>Cafe in beb el khoukha is a cafe located in kairouan, Tunisia. Situated at the coordinates (35.6796035, 10.1047369), it offers a variety of services and amenities to its customers. The cafe is well-rated, with a 5.0 rating based on 4 reviews. It is open from 09:00 to 00:00 on weekdays, and closed on weekends. Unfortunately, there is no available information about the cafe's website, phone number, or owner.</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2076,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great Cafe, head to Cafe saraya at M39H+HJR Cafe saraya, Av. Mongi Slim. With a rating of 4.3, it's a top spot for locals and visitors alike. Cafe saraya offers a range of services, including Cafe, and is open daily 24 060 225. For more information, visit their website or give them a call.</t>
+          <t>Located in the heart of Kairouan, Cafe saraya is a cozy spot offering a delightful cafe experience. With a warm ambiance and friendly service, it's a popular destination for locals and visitors alike. Enjoy a cup of aromatic coffee or a refreshing beverage, complemented by a delicious selection of cafe eats.</t>
         </is>
       </c>
     </row>
@@ -2182,8 +2171,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Cafe, check out Cactus bistro kairouan at 187 Rue Beit Al Hekma, Kairouan. 
-This popular destination has a rating of 5.0 and is a must-visit spot for Cafe lovers. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>Cactus bistro kairouan is a cafe located at 187 Rue Beit Al Hekma in Kairouan, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 8am to 10pm, seven days a week. It is located in the heart of the city, making it a convenient place to stop for a bite to eat or a drink. The cafe has a friendly and inviting atmosphere, and the staff is always happy to help.</t>
         </is>
       </c>
     </row>
@@ -2278,7 +2266,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to get your caffeine fix, Espace Dolce Vita (Cafe Picine) is a top-rated spot. Located at M4H4+M3F Espace Dolce Vita (Cafe Picine), `qb@,, Boulevard H Chaker, Kairouan, this cafe offers a cozy atmosphere and a range of delicious drinks to choose from. With a rating of 4.3, it's a must-visit spot for coffee lovers. You can visit their website at https://www.google.com/maps/place/Espace+Dolce+Vita+%28Caf%C3%A9+Picine%29/data=!4m7!3m6!1s0x12fdc57d7f1509c9:0x77e4ad2c6039b96!8m2!3d35.6791993!4d10.1051599!16s%2Fg%2F11rxp77fzx!19sChIJyQkVf33F_RIRlpsDxtJKfgc?authuser=0&amp;hl=fr&amp;rclk=1 for more details.</t>
+          <t>Café Pizzeria Dolce Vita (Cafe Picine) is well-rated (4.3) and has three reviews. It's located at Boulevard H Chaker in Kairouan, Tunisia. It offers a café and pizzeria menu with a poolside dining option.</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2365,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Cafe, check out Coffee Time located at M4G5+F2H Coffee Time, nhj khmys l`lwyny. This destination offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>Coffee Time is a highly-rated cafe situated in Kairouan, Tunisia. Known for its cozy atmosphere and friendly staff, the cafe offers a wide range of coffee and tea beverages, as well as pastries and light snacks. Located at coordinates (35.6727967, 10.0949059), the cafe is easily accessible and open daily from 05:00 to 22:00.</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2464,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Cafe, check out Cafe maure barrouta located at Cafe maure barrouta, Bir Barrouta. This popular destination is a must-visit spot for Cafe lovers, offering a range of categories to choose from. Rated 4.3 out of 5, it's open daily from 07:00-00:00. To get there, use these GPS coordinates: 35.67574, 10.10064.</t>
+          <t>Café maure barrouta is a cafe located in Kairouan, Tunisia. It has a rating of 4.3 and is open from 07:00-00:00. The cafe is located at the coordinates (35.67574, 10.10064) and offers a variety of cafe related products and services.</t>
         </is>
       </c>
     </row>
@@ -2583,9 +2571,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Cafe Kaser Ennour located at M3QR+5VW Cafe Kaser Ennour, Unnamed Road, Kairouan. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://m.facebook.com/profile.php%3Fid%3D253885388146852%26ref%3Dcontent_filter or call them at 53 025 689.</t>
+          <t>Cafe Kaser Ennour is a cafe located in Kairouan, Tunisia (lon: 10.0949059, lat: 35.6727967). It offers a variety of cafe-style food and drinks, and is open 24 hours a day. The cafe has a 5.0 rating on Google Maps, and has received 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -2688,8 +2674,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a great cafe, check out el clasico located at M4F2+4FH el clasico. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open 24 hours a day and is closed on [] . To get there, use these GPS coordinates: 35.6727967, 10.0949059. 
-For more details, visit their website at https://www.google.com/maps/place/el+clasico/data=!4m7!3m6!1s0x12fdc5484e866c4f:0x4dad353d1d9bef2c!8m2!3d35.6728081!4d10.1012441!16s%2Fg%2F11g8n718sf!19sChIJT2yGTkjF_RIRLO-bHT01rU0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 591 349.</t>
+          <t>Come and visit the cozy cafe el clasico in kairouan. This well-rated cafe (4.5/5 by 2 visitors) is the perfect place to relax. Open 24 hours, feel free to pass by whenever you feel like it.</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2773,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great Cafe, check out mqh~ lfTnsy located at mqh~ lfTnsy, Unnamed Road. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>mqh~ lfTnsy is a well-rated cafe located in Kairouan, Tunisia (35.6727967, 10.0949059). It offers a cozy atmosphere and a wide selection of coffee, tea, and snacks. It is a popular spot for locals and tourists alike to relax and enjoy a cup of coffee in the heart of the city.</t>
         </is>
       </c>
     </row>
@@ -2895,9 +2880,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a top-rated cafe, visit Dosis coffee shop located at M4H4+3P5 Dosis coffee shop, Avenue khmais alouini,. 
-This popular spot is open daily from 07:00-22:00 and has a rating of 5.0, making it a must-visit for cafe lovers. 
-For more details, visit their website at https://instagram.com/fastryexpress%3Figshid%3DOGQ5ZDc2ODk2ZA%3D%3D or call them at 93 319 007.</t>
+          <t>Dosis Coffee Shop is a highly-rated (5.0) café situated in Kairouan, Tunisia (coordinates 35.654691, 10.0913087). It operates daily from 7 AM to 10 PM and boasts a website (https://instagram.com/fastryexpress%3Figshid%3DOGQ5ZDc2ODk2ZA%3D%3D) for further information and engagement.</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2979,8 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out qhw@ Hmz@ located at M37H+5PW qhw@ Hmz@, Unnamed Road, Kairouan. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/%D9%82%D9%87%D9%88%D8%A9+%D8%AD%D9%85%D8%B2%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12fdd13df97cef6f:0x9e2241c5907dbe1c!8m2!3d35.6629983!4d10.0793187!16s%2Fg%2F11rxmc6_6n!19sChIJb-98-T3R_RIRHL59kMVBIp4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>**Café à Kairouan**
+Ce café, situé à Kairouan (coordonnées : 35.6727967, 10.0949059), est ouvert 24h/24. Il propose un large choix de boissons et de collations dans une ambiance chaleureuse et conviviale.</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3079,9 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out mqh~ lshrTny (qhw@ blmyn) located at M3HQ+5J2 mqh~ lshrTny (qhw@ blmyn), C87. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-02:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%B4%D8%B1%D8%B7%D8%A7%D9%86%D9%8A+%28%D9%82%D9%87%D9%88%D8%A9+%D8%A8%D9%84%D9%85%D9%8A%D9%86%29%E2%80%AD/data=!4m7!3m6!1s0x12fdc5b6b69cd4d5:0xd300653d95a3fa7d!8m2!3d35.677884!4d10.0890208!16s%2Fg%2F11rxyk9n8r!19sChIJ1dSctrbF_RIRffqjlT1lANM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>mqh~ lshrTny is a 5-star rated cafe situated in kairouan, Tunisia, with coordinates (35.6727967, 10.0949059). It operates from 4:00 AM to 2:00 AM and offers a variety of services, including:
+* Cafe services
+The cafe is known for its friendly atmosphere and great service. It is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3172,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Main Street Coffee located at M4F4+FV4 Main Street Coffee, Av. Mohamed Ibn Sahnoun, Kairouan. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.673872158686, 10.107140747335. For more details, visit their website at https://www.google.com/maps/place/Main+Street+Coffee/data=!4m7!3m6!1s0x12fdc5006eacd1bf:0xb1ac251970b6c63d!8m2!3d35.6894596!4d10.0983309!16s%2Fg%2F11vr04ryfq!19sChIJv9GsbgDF_RIRPca2cBklrLE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Main Street Coffee is a cafe located in Kairouan, Tunisia. It has one review and a rating of 5.0. The cafe is on Mohamed Ibn Sahnoun Avenue and is in the category of cafes.</t>
         </is>
       </c>
     </row>
@@ -3293,9 +3279,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a delicious meal, check out Essiguifa located at Av. de Kairouan, Tozeur. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 33.921574605214, 8.138131631011. For more details, visit their website at https://www.facebook.com/ESSIGUIFADETOZEUR%3Fmibextid%3DZbWKwL or call them at 51 396 397.</t>
+          <t>Essiguifa is a highly-rated Tunisian restaurant located in Tozeur, Tunisia. With an average rating of 4.8 out of 5, it offers a wide selection of traditional Tunisian cuisine. Situated at (33.921574605214, 8.138131631011), Essiguifa is easily accessible to visitors. It is open from 8 AM to midnight, providing ample opportunity for guests to enjoy its delicious food and welcoming atmosphere.</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3386,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to stay, check out Dar El Henchir located at Dar El Henchir, Al-Waslatiyah , km 55 Route De Kairouan Oueslatia , On Main Road To Alwaslatiyah, Ousseltia 3120. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes, Lodge to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.84778, 9.58944. For more details, visit their website at https://www.facebook.com/profile.php/%3Fid%3D100063673205877 or call them at 23 302 239.</t>
+          <t>Dar El Henchir is a 4-star guesthouse located in Ousseltia, Tunisia, offering traditional rooms with antique furniture. It boasts a restaurant and a terrace, and is situated on the main road to Alwaslatiyah. The guesthouse has received positive reviews and is managed by Dar El Henchir (proprietaire). With a rating of 4.6, it is a well-regarded accommodation option in the area.</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3493,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated hotel, check out La Kasba located at 3140 Rue de La Kasbah. This 4.3-rated destination offers a range of categories including Hotel and Lieu historique. To get there, use these GPS coordinates: 35.680466016969, 10.101036154793. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 77 237 301.</t>
+          <t>La Kasba is a relaxed-style hotel located in Kairouan, Tunisia. It features 509 reviews with an average rating of 4.3. The hotel offers complimentary breakfast, a restaurant, a coffee shop, an outdoor pool, and meeting space. It is situated near the La Kasbah Mosque.</t>
         </is>
       </c>
     </row>
@@ -3612,11 +3596,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a Maison d'hotes, check out Dar Hassine Allani located at 37 Rue El Kadraoui, Kairouan. 
-This top-rated destination is perfect for Maison d'hotes lovers. 
-With a rating of 4.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 35.6727967, 10.0949059. 
-For more details, visit their website at https://www.facebook.com/darhassineallani/ or call them at 25 258 684.</t>
+          <t>Dar Hassine Allani is a guest house located in Kairouan, Tunisia. It offers its guests a comfortable stay in a traditional Tunisian house. The guest house has a 4.0 rating on Google and has received positive reviews for its clean rooms, friendly staff, and convenient location.</t>
         </is>
       </c>
     </row>
@@ -3723,9 +3703,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Dar El Henchir located at Dar El Henchir, Al-Waslatiyah , km 55 Route De Kairouan Oueslatia , On Main Road To Alwaslatiyah, Ousseltia 3120. 
-This top-rated destination is perfect for Maison d'hotes and offers a range of Maison d'hotes, Lodge to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.84778, 9.58944. For more details, visit their website at https://www.facebook.com/profile.php/%3Fid%3D100063673205877 or call them at 23 302 239.</t>
+          <t>Dar El Henchir is a traditional guest house located in Oueslatia, Tunisia, near the city of Kairouan (coordinates: 35.84778, 9.58944). The guest house features antique-furnished rooms and a restaurant with a terrace. Dar El Henchir offers a warm and comfortable stay for travelers seeking a traditional Tunisian experience.</t>
         </is>
       </c>
     </row>
@@ -3828,11 +3806,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Nestled in the heart of kairouan, Dar Alouini is a top-rated 4.4-star Maison d'hotes that caters to the needs of travelers looking for a memorable experience. This charming hotel is located at Dar Alouini, 34 Rue Oum, Iyadh, 3100, Kairouan and offers a peaceful retreat for guests seeking tranquility and comfort.
-Dar Alouini boasts an array of amenities and services that cater to the needs of discerning travelers. From cozy rooms to relaxing common areas, the hotel provides a welcoming ambiance for visitors. The property has garnered rave reviews from guests who have praised its exceptional service, comfortable accommodations, and convenient location.
-To make your stay even more enjoyable, the hotel offers a range of amenities, including free Wi-Fi, a breakfast service, and a 24-hour front desk. The friendly and knowledgeable staff is always willing to go the extra mile to ensure that guests have a memorable and enjoyable stay.
-For those looking to explore the surrounding area, Dar Alouini is ideally situated near many of kairouan's most popular attractions. The Great Mosque of Kairouan, a UNESCO World Heritage Site, is just a short walk away, while the Medina of Kairouan offers a vibrant and colorful marketplace experience.
-To book your stay at Dar Alouini or to learn more about the hotel's offerings, visit their website at http://dar-alouini.com/ or call them at 77 231 321.</t>
+          <t>Dar Alouini is a 4.4-rated maison d'hotes located in Kairouan, Tunisia. The guest house is situated at (35.654691, 10.0913087) and is near the Great Mosque of Kairouan. Dar Alouini offers a variety of amenities, including a restaurant and a swimming pool. The hotel has a charming staff and the rooms are well-appointed.</t>
         </is>
       </c>
     </row>
@@ -3931,9 +3905,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to stay, check out Hotel Ettaoufik located at Hotel Ettaoufik, Kairouan. 
-This top-rated hotel is perfect for hotel lovers and offers a range of amenities to choose from. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 35.67109, 10.09393. For more details, call them at 51 802 840.</t>
+          <t>Nestled in the heart of Kairouan at (35.67109, 10.09393), Hotel Ettaoufik is a popular destination for travelers seeking a 4.6-star experience. With a focus on hospitality, the hotel offers a range of amenities to ensure a comfortable stay.</t>
         </is>
       </c>
     </row>
@@ -4030,7 +4002,11 @@
           <t>kairouan</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>Nestled in the heart of Kairouan, Dar Chama is a charming guest house that offers a unique and memorable experience. Located at (35.654691, 10.0913087), this establishment has a rating of 4.8, based on 6 reviews. Dar Chama specializes in providing comfortable accommodations and is highly recommended by its guests.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4127,9 +4103,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great hotel, check out Hotel Ettaoufik located at Hotel Ettaoufik, Kairouan. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. Hotel Ettaoufik is open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.67109, 10.09393. For more details, visit their website at nan or call them at 51 802 840.</t>
+          <t>Hotel Ettaoufik is a 4.6-rated hotel located in Kairouan, Tunisia. It offers a wide range of amenities, including a restaurant, bar, and swimming pool. The hotel is conveniently located near the city center and offers easy access to local attractions.</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4210,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a place to stay, check out La Kasba located at 3140 Rue de La Kasbah. This top-rated destination is perfect for Hotel lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.680466016969, 10.101036154793. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 77 237 301.</t>
+          <t>La Kasba, located in Kairouan, Tunisia, offers a blend of comfort and historical charm. As a hotel, it provides cozy accommodations, a delightful restaurant, and a refreshing outdoor pool. The hotel is renowned for its convenient location, being situated at the heart of the city's captivating Kasbah district. Whether you seek relaxation, cultural immersion, or culinary experiences, La Kasba promises an unforgettable stay in the heart of Tunisia's rich heritage.</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4313,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated hotel, check out Dar El Caid. This hotel is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.921574605214, 8.138131631011. For more details, visit their website at http://darelcaid.com/ or call them at 99 179 603.</t>
+          <t>Dar El Caid is a 4.1-rated hotel located on Av. de Kairouan, Tozeur, with coordinates (33.921574605214, 8.138131631011). It has 11 reviews and falls under the Hotel category. Unfortunately, no further information is available about the hotel's amenities or special features.</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4412,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Maison d'hotes, check out Dar Elhadir located at W4CP+RWJ Dar Elhadir, Av. de Kairouan, Tozeur. With a rating of 4.9, it's a must-visit spot and offers a range of categories to choose from. To get there, use these GPS coordinates: 33.921574605214, 8.138131631011. For more details, visit their website at https://www.google.com/maps/place/Dar+Elhadir/data=!4m10!3m9!1s0x1257c1c4847f0fcd:0x85de1da160a07e3b!5m2!4m1!1i2!8m2!3d33.9216744!4d8.1377987!16s%2Fg%2F11sddd1cxr!19sChIJzQ9_hMTBVxIRO36gYKEd3oU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 099 162.</t>
+          <t>Dar Elhadir is a charming guesthouse located in Tozeur, Tunisia. At 33.921574605214 latitude and 8.138131631011 longitude, it provides a perfect base for exploring the city. The guesthouse offers a range of services and amenities, including free Wi-Fi, traditional Tunisian cuisine, and guided tours of the surrounding area. With a 4.9 rating from 9 reviews, it's a great choice for travelers looking for a comfortable and authentic stay in Tozeur.</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4519,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in Kairouan, make sure to visit Mosquee Okba Ibn Nafaa, a famous mosque located at Rue De La Kasbah. With a rating of 4.6, it's a top-rated destination for those interested in Mosquee. It's open from 08:00-14:00 and features a range of attractions, including Lieu historique and Attraction touristique. For more information, visit their website or call 76 489 133.</t>
+          <t>Located in Kairouan, Tunisia (coordinates: 35.680789525406, 10.103936021759), the renowned Mosquee Okba Ibn Nafaa is a 7th-century mosque renowned for its architectural splendor. Its imposing walls, square minaret, and intricate embellishments showcase the artistry of the era. Immerse yourself in the rich history of the Islamic civilization and admire the remarkable details that have made this mosque a must-visit historical attraction.</t>
         </is>
       </c>
     </row>
@@ -4652,9 +4626,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee Okba Ibn Nafaa located at Rue De La Kasbah. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of categories like Mosquee, Lieu historique, Attraction touristique to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-14:00. To get there, use these GPS coordinates: 35.680789525406, 10.103936021759. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+Okba+Ibn+Nafaa/data=!4m7!3m6!1s0x12fdc53f682397e3:0x89210e086723ba1e!8m2!3d35.6813693!4d10.1041651!16zL20vMGYyNmZz!19sChIJ45cjaD_F_RIRHrojZwgOIYk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 76 489 133.</t>
+          <t>The Great Mosque of Kairouan, also known as the Mosque of Uqba, is a historic mosque in the city of Kairouan, Tunisia. It was founded in 670 AD by the Arab commander Uqba ibn Nafi al-Fihri and is one of the oldest mosques in North Africa. The mosque is known for its imposing walls, square minaret, and intricate architectural ornaments. It is a popular tourist attraction and is considered a UNESCO World Heritage Site. The mosque is located in the heart of the city of Kairouan and is easily accessible by foot, car, or public transportation.</t>
         </is>
       </c>
     </row>
@@ -4753,11 +4725,9 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Bassins des Aghlabides located at M3PW+R5V Bassins des Aghlabides, Av. de la Republique, Kairouan. 
-This top-rated destination is perfect for Lieu historique lovers and offers a range of Lieu historique, Site historique, Attraction touristique to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on [ ]. To get there, use these GPS coordinates: 
-35.6860065, 10.0949492. For more details, visit their website at 
-https://www.google.com/maps/place/Bassins+des+Aghlabides/data=!4m7!3m6!1s0x12fdc56a6be16839:0x746ab95f1bd7a246!8m2!3d35.6871107!4d10.0954229!16s%2Fg%2F121zpg5t!19sChIJOWjha2rF_RIRRqLXG1-5anQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [ ].</t>
+          <t>Bassins des Aghlabides, located in Kairouan, Tunisia, is a remarkable historical site. Built in the 9th century, it's a testament to the ingenuity of the Islamic civilization. These massive reservoirs once served as a strategic water management system, supplying the city's growing population with fresh water.
+Today, the Bassins des Aghlabides stand as a captivating tourist attraction, inviting visitors to explore their rich past. The site offers serene surroundings, including lush parks and breathtaking views. With its proximity to other historical landmarks, it's an ideal destination for history enthusiasts and those seeking to delve into the legacy of this ancient civilization.
+Coordinates: (35.6860065, 10.0949492)</t>
         </is>
       </c>
     </row>
@@ -4860,7 +4830,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a fascinating museum, head to Mausolee du Barbier located at Mausolee du Barbier, Mosquee du Barbier, Av. de la Republique, Kairouan 3100. With a rating of 4.5 and 353 reviews, it's a must-visit spot for history and architecture enthusiasts. It's open daily from 08:00-19:00. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at https://www.google.com/maps/place/Mausol%C3%A9e+du+Barbier/data=!4m7!3m6!1s0x12fdc55c9a89b16d:0x836bddc085044f48!8m2!3d35.682061!4d10.090226!16s%2Fg%2F1tgldk1j!19sChIJbbGJmlzF_RIRSE8EhcDda4M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 77 231 897.</t>
+          <t>The Mausolee du Barbier is located in Kairouan, Tunisia, and it is a museum and tourist attraction. The main category of the Mausolee du Barbier is a museum, and its secondary category is a tourist attraction. It has a 4.5 rating based on 353 reviews. The Mausolee du Barbier is open from 8:00 AM to 7:00 PM, and it is closed on no specific days. The Mausolee du Barbier is a popular tourist destination, and it is known for its beautiful architecture, its historical significance, and its collection of artifacts.</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4925,8 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee des trois portes located at M4G3+W3W Mosquee des trois portes, Avineda De Kortoba, Kairouan. This top-rated destination is perfect for Mosquee lovers and offers a range of attractions to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>Mosquée des trois portes is a mosque located in Kairouan, Tunisia. It is a popular tourist attraction and is known for its unique architecture. The mosque has three entrances, which is why it is called the "mosque of three doors". It is also known for its beautiful courtyard and its minaret. The mosque is a UNESCO World Heritage Site.
+Mosquée des trois portes is located at 35.6727967, 10.0949059. It is open to the public every day from 9am to 5pm.</t>
         </is>
       </c>
     </row>
@@ -5050,9 +5021,8 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in kairouan, for a sacred experience, check out La Mosqur E du Barbier (Sidi Sahib,'Abou Zamaa El-Balaoui, Zawiya) at Unnamed Road, Kairouan. 
-This top-rated destination is perfect for Mosquee lovers and also has historical importance. 
-With a rating of 4.9, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/La+Mosqu%E0%B8%A3+E+du+Barbier+%28Sidi+Sahib,%27Abou+Zamaa+El-Balaoui,+Zawiya%29/data=!4m7!3m6!1s0x12fdc5ffb21b32f7:0x7c31ce5de2c7a3cf!8m2!3d35.6819896!4d10.0903402!16s%2Fg%2F11h6jfzd1k!19sChIJ9zIbsv_F_RIRz6PH4l3OMXw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>La Mosquée du Barbier, également connue sous le nom de Sidi Sahib, est un lieu historique situé dans la ville sainte de Kairouan, en Tunisie. Cette mosquée, qui remonte au XVIe siècle, est dédiée au saint Abou Zamaa El-Balaoui.
+Elle est célèbre pour son mausolée, où est enterré le saint, qui attire chaque année de nombreux pèlerins musulmans. La Mosquée du Barbier est un site culturel important qui témoigne de la riche histoire religieuse et architecturale de Kairouan.</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5117,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you happen to be in kairouan and seeking an enriching historical experience, visit Sidi Ghariani, a top-rated historical site located at M4F2+WG7 Sidi Ghariani. This renowned destination is perfect for history enthusiasts and offers a glimpse into the past as a historical site, museum, and tomb. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.675482795062, 10.101898313433. For more details, visit the Google Maps page at https://www.google.com/maps/place/Sidi+Ghariani/data=!4m7!3m6!1s0x12fdc5beb0ad05ed:0x15b48f759a391544!8m2!3d35.6751601!4d10.1015943!16s%2Fg%2F11sdsqqnrz!19sChIJ7QWtsL7F_RIRRBU5mnWPtBU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sidi Ghariani is a historical landmark located in Sidi Ghariani, Kairouan. It is a mausoleum that is known for its architectural beauty and historical significance. The landmark is rated 4.4 out of 5 by visitors and is a popular tourist destination in the city.</t>
         </is>
       </c>
     </row>
@@ -5254,9 +5224,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee Okba Ibn Nafaa located at M4J3+GMV Mosquee Okba Ibn Nafaa, Rue De La Kasbah, Kairouan. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-14:00. To get there, use these GPS coordinates: 35.680789525406, 10.103936021759. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+Okba+Ibn+Nafaa/data=!4m7!3m6!1s0x12fdc53f682397e3:0x89210e086723ba1e!8m2!3d35.6813693!4d10.1041651!16zL20vMGYyNmZz!19sChIJ45cjaD_F_RIRHrojZwgOIYk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 76 489 133.</t>
+          <t>The Mosquee Okba Ibn Nafaa is a historic mosque located in Kairouan, Tunisia. Built in the 7th century, it is one of the oldest mosques in North Africa and a prominent landmark in the city. The mosque features imposing walls, a square minaret, and intricate architectural details. Visitors can explore the mosque's interior, marvel at its unique design, and learn about its historical significance. The site offers a glimpse into the rich history of Islam and architecture in the region.</t>
         </is>
       </c>
     </row>
@@ -5355,11 +5323,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a unique cultural experience, head over to Kairouan Grand Mosque at M4J3+RFG Kairouan Grand Mosque. 
-This top-rated historical museum is perfect for history enthusiasts, featuring various exhibits and artifacts. 
-With a rating of 4.5 stars, it's a must-visit spot. It's open during these hours: 08:00-14:00, but closed on none. 
-To get there, use these GPS coordinates: 35.6823728, 10.1035996. For more details, visit their website 
-at https://www.google.com/maps/place/Kairouan+Grand+Mosque/data=!4m7!3m6!1s0x12fdc5ff2f223c43:0xbe611c5c668c0513!8m2!3d35.6820625!4d10.1036875!16s%2Fg%2F11jbnwjpjx!19sChIJQzwiL__F_RIREwWMZlwcYb4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Kairouan Grand Mosque, located in the heart of Kairouan, Tunisia, is a historical landmark and a significant spiritual site. This sacred mosque is renowned for its exceptional Islamic architecture, which features stunning columns and intricate decorations. It is a prominent destination for Muslim pilgrims and visitors seeking a profound religious experience. The Grand Mosque also holds immense historical significance, serving as a place of worship and a center of Islamic learning throughout the centuries. Its geographical coordinates are (35.6823728, 10.1035996), offering visitors the rare opportunity to explore this magnificent architectural and spiritual treasure.</t>
         </is>
       </c>
     </row>
@@ -5458,9 +5422,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a historical adventure, head to Bassins des Aghlabides, situated on Av. de la Republique. 
-This top-rated historical site is perfect for history buffs and offers a fascinating glimpse into the past. 
-With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, offering ample time to explore. To get there, enter these GPS coordinates into your device: 35.6860065, 10.0949492.</t>
+          <t>The Bassins des Aghlabides are a historical site located in Kairouan, Tunisia. It is an ancient reservoir built by the Aghlabid dynasty in the 9th century and is considered a significant example of Islamic hydraulic engineering. The site, also known as the Aghlabid Reservoirs, has received numerous positive reviews, earning a 4.1 rating out of 5. It is a popular tourist destination, showcasing the historical significance and architectural ingenuity of the Aghlabid period in Tunisia.</t>
         </is>
       </c>
     </row>
@@ -5563,9 +5525,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mausolee du Barbier located at Mausolee du Barbier, Mosquee du Barbier, Av. de la Republique, Kairouan 3100. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee, Attraction touristique to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-19:00, but closed on []. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at https://www.google.com/maps/place/Mausol%C3%A9e+du+Barbier/data=!4m7!3m6!1s0x12fdc55c9a89b16d:0x836bddc085044f48!8m2!3d35.682061!4d10.090226!16s%2Fg%2F1tgldk1j!19sChIJbbGJmlzF_RIRSE8EhcDda4M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 77 231 897.</t>
+          <t>The Mausolee du Barbier is a museum located in Kairouan, Tunisia. This mausoleum is dedicated to the history and architecture of the region. The museum features exhibits on the history of Islam, the architecture of the region, and the life of the prophet Muhammad. The museum is open from 8am to 7pm every day.</t>
         </is>
       </c>
     </row>
@@ -5668,9 +5628,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee du Barbier jm` by zm`@ lblwy located at Mosquee du Barbier, Av. de la Republique, Kairouan 3100. 
-This top-rated destination is perfect for Monastere lovers and offers a range of Monastere, Attraction touristique to choose from. 
-With a rating of 4.6 and 315 reviews, it's a must-visit spot. It's open during these hours: 07:00-20:00. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+du+Barbier+%D8%AC%D8%A7%D9%85%D8%B9+%D8%A7%D8%A8%D9%89+%D8%B2%D9%85%D8%B9%D8%A9+%D8%A7%D9%84%D8%A8%D9%84%D9%88%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fdc55c977d55c5:0x2b148b98b4966f94!8m2!3d35.6821!4d10.0899!16s%2Fg%2F121lmgkq!19sChIJxVV9l1zF_RIRlG-WtJiLFCs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 77 288 258.</t>
+          <t>Mosquee du Barbier jm` by zm`@ lblwy is a monastery and a tourist attraction located in Kairouan, Tunisia. It is open from 7:00 AM to 8:00 PM and has received 315 reviews from visitors, with an average rating of 4.6. The monastery's exact location is at latitude 35.673189168275 and longitude 10.102536932089, along Avenue de la Republique. The monastery has a featured image available at https://lh5.googleusercontent.com/p/AF1QipPOFhSqYE7WLJwhqDqVjtRY5ZFTtV1Ro_c9XtN7=w426-h240-k-no.</t>
         </is>
       </c>
     </row>
@@ -5765,7 +5723,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Sidi Ghariani located at M4F2+WG7 Sidi Ghariani, Kairouan. This top-rated destination is perfect for history lovers and offers a range of categories to choose from, including historical site, museum, and tomb. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.675482795062, 10.101898313433. For more details, visit their website at https://www.google.com/maps/place/Sidi+Ghariani/data=!4m7!3m6!1s0x12fdc5beb0ad05ed:0x15b48f759a391544!8m2!3d35.6751601!4d10.1015943!16s%2Fg%2F11sdsqqnrz!19sChIJ7QWtsL7F_RIRRBU5mnWPtBU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sidi Ghariani is a historical site located in Kairouan, Tunisia. It is a mausoleum and museum dedicated to the memory of Sidi Ghariani, a revered Sufi saint. The mausoleum is known for its intricate architecture and is considered a popular pilgrimage site. Visitors can learn about the life and teachings of Sidi Ghariani and explore the museum's collection of artifacts and exhibits related to his legacy. It is conveniently situated at M4F2+WG7 Sidi Ghariani in Kairouan and can be easily accessed by visitors.</t>
         </is>
       </c>
     </row>
@@ -5860,9 +5818,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in kairouan, don't miss the top-rated Musee du tapis, located at M3CX+XPP Musee du tapis, Kairouan. 
-This must-visit spot boasts a 4.5-star rating and is an excellent destination for Musee enthusiasts. 
-For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+du+tapis/data=!4m7!3m6!1s0x12fdc52a84dd6553:0xd5e9efba8fcbbf2!8m2!3d35.672459!4d10.0993201!16s%2Fg%2F11h0_1x78l!19sChIJU2XdhCrF_RIR8rv8qPueXg0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Musée du Tapis, located in the ancient city of Kairouan, is a renowned museum dedicated to preserving and showcasing the rich heritage of carpet making in the region. It offers visitors the opportunity to explore a remarkable collection of traditional Kairouani carpets, known for their intricate designs, vibrant colors, and exceptional craftsmanship. Step into the museum and immerse yourself in the fascinating world of carpet weaving, a centuries-old tradition that has played a significant role in shaping Kairouan's cultural identity.</t>
         </is>
       </c>
     </row>
@@ -5965,9 +5921,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Musee national d'art islamique de Raqqada located at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on lundi. To get there, use these GPS coordinates: 35.5929018, 10.0532844. For more details, visit their website at https://www.tunisiepatrimoine.tn/musees/musee-national-dart-islamique-de-raqqada/apercu/</t>
+          <t>Discover the Musée national d'art islamique de Raqqada in kairouan, a renowned museum with a rating of 4.7 and over 10 reviews. Immerse yourself in the captivating realm of Islamic art and admire the museum's captivating collection. It boasts a prime location at H3V3+249 Musee national d'art islamique de Raqqada, Kairouan, and is conveniently open from 9:00 AM to 4:00 PM, except on Mondays. Kindly note that the museum's description and phone number are currently unavailable.</t>
         </is>
       </c>
     </row>
@@ -6062,9 +6016,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out mtHf lzrby@ located at M3FX+2PV mtHf lzrby@, Av. Ali Zouaoui, Kairouan. 
-This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. 
-With a rating of 4.3, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
+          <t>**Musée Historique de Kairouan** (également connu sous le nom de "mtHf lzrby@") est un musée situé à Kairouan, en Tunisie. Il est dédié à l'histoire et au patrimoine de la ville, avec une collection d'artefacts et d'expositions qui retracent le riche passé de Kairouan. Le musée se trouve au cœur de la ville, à proximité d'autres monuments historiques.</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6123,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out DAR EL MRABET Maison Musee located at Rue Sidi Abid, Kairouan 3100. This top-rated destination is perfect for Musee d'histoire lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-16:00, but closed on dimanche.</t>
+          <t>DAR EL MRABET Maison Musee is a historical museum located in Kairouan, Tunisia. The museum is dedicated to the history and culture of Kairouan, and features exhibits on the city's architecture, art, and religion. The museum is open from 9:00am to 4:00pm, and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -6278,9 +6230,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Salon d'artisanat, check out Click'airouan STORE located at M3HX+PVM Click'airouan STORE, Rue De La Kasbah, Kairouan. 
-This popular destination is perfect for Salon d'artisanat enthusiasts and offers a rating of 5.0. 
-It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at http://www.clickairouan.store/ or call them at 77 251 433.</t>
+          <t>Click'airouan STORE is a handicraft boutique located in Kairouan. The store offers a wide range of traditional and artisanal products, including pottery, leather goods, and jewelry. It is conveniently located in the medina, or old town, of Kairouan, making it easy to visit while exploring the city's many other historical and cultural attractions.</t>
         </is>
       </c>
     </row>
@@ -6371,8 +6321,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Musee, check out Conservatoire located at Conservatoire, Rue Ibn Zoubeir. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Conservatoire/data=!4m7!3m6!1s0x12fdc54579dfb8e7:0xf556e90df5306be7!8m2!3d35.6764042!4d10.0944378!16s%2Fg%2F11c2jjgrwp!19sChIJ57jfeUXF_RIR52sw9Q3pVvU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Conservatoire is a museum located in Kairouan, Tunisia. It offers exhibits on the history, culture, and art of the region. The museum is located at coordinates (35.676420619995, 10.094614962512) and has a rating of 5.0 out of 5 stars based on 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6424,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Musee Archeologique Et Traditionnel Sidi Ben Aissa located at W4CQ+M6W Musee Archeologique Et Traditionnel Sidi Ben Aissa, Av. de Kairouan, Tozeur. This top-rated destination is the perfect spot for Musee du patrimoine lovers. With a rating of 5.0, it's surely worth your visit. It's open during these hours: 09:00-18:00. For more details, visit their website or give them a call at 97 091 083.</t>
+          <t>The Sidi Ben Aissa Archaeological and Traditional Museum is located in Tozeur, Tunisia, at coordinates (33.921574605214, 8.138131631011). It is a museum dedicated to preserving and showcasing the archaeological and traditional heritage of the region. The museum offers visitors a unique glimpse into the rich history and culture of Tozeur through its collection of artifacts, exhibits, and interactive displays.</t>
         </is>
       </c>
     </row>
@@ -6570,10 +6519,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in kairouan exploring the main attractions, add Musee d'Arts Tozeurous to your list. 
-This top-rated art museum is located at W4CQ+9CG Musee d'Arts Tozeurous, Ouled El Hadef, Av. de Kairouan, Tozeur. 
-With a high rating of 4.6, it's a popular spot offering an immersive experience in the art world. 
-To learn more, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+d%27Arts+Tozeurous/data=!4m7!3m6!1s0x1257c1e3fd476771:0xa11ff2d089d0f1b0!8m2!3d33.9209424!4d8.1385604!16s%2Fg%2F11pbl1v6b_!19sChIJcWdH_ePBVxIRsPHQidDyH6E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located in the city of kairouan with coordinates (33.921574605214, 8.138131631011), the Musee d'Arts Tozeurous is an art museum.</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6626,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in Kairouan, visit the historic Mosquee Okba Ibn Nafaa on Rue De La Kasbah, M4J3+GMV. This highly-rated (4.6 out of 5) destination offers a glimpse into Islamic civilization and architecture, with stunning features like marble columns, a square minaret, and a cadran solaire. It's open from 8:00 AM to 2:00 PM on weekdays, and you can reach them at 76 489 133 for any inquiries.</t>
+          <t>Located in Kairouan, Mosquee Okba Ibn Nafaa is an iconic mosque dating back to the 7th century. Its imposing walls, square minaret, and intricate architectural details are a testament to the rich Islamic heritage of the region. Visitors can explore the mosque's historical significance, admire its architectural beauty, and experience the vibrant atmosphere of this sacred site.</t>
         </is>
       </c>
     </row>
@@ -6779,9 +6725,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in kairouan, check out Bassins des Aghlabides located at M3PW+R5V Bassins des Aghlabides, Av. de la Republique. 
-This top-rated destination is perfect for Lieu historique lovers and offers a range of Lieu historique, Site historique, and Attraction touristique to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open 24h/24, but closed on none. To get there, use these GPS coordinates: 35.6860065, 10.0949492. For more details, visit their website at https://www.google.com/maps/place/Bassins+des+Aghlabides/data=!4m7!3m6!1s0x12fdc56a6be16839:0x746ab95f1bd7a246!8m2!3d35.6871107!4d10.0954229!16s%2Fg%2F121zpg5t!19sChIJOWjha2rF_RIRRqLXG1-5anQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Bassins des Aghlabides is a historical place in Kairouan, Tunisia, known for its remarkable Islamic architecture. Built in the 9th century, these impressive basins were part of a sophisticated hydraulic system that supplied water to the city. Today, this site offers a glimpse into medieval Islamic engineering and culture, attracting tourists interested in history, architecture, and the significance of water management in the region.</t>
         </is>
       </c>
     </row>
@@ -6884,7 +6828,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee du Barbier jm` by zm`@ lblwy located at Mosquee du Barbier, Av. de la Republique, Kairouan 3100. This top-rated destination is perfect for Monastere lovers and offers a range of Monastere, Attraction touristique to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-20:00. To get there, use these GPS coordinates: 35.673189168275, 10.102536932089. For more details, visit their website at or call them at 77 288 258.</t>
+          <t>Located at (35.673189168275, 10.102536932089), the Mosquee du Barbier jm` by zm`@ lblwy is a well-rated 4.6 monastery in Kairouan, Tunisia. This popular tourist attraction is open from 7 AM to 8 PM, and visitors can learn a lot while exploring the facilities. Many patrons have left rave reviews about the place, making it an excellent choice for a visit.</t>
         </is>
       </c>
     </row>
@@ -6979,7 +6923,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Mosquee des trois portes located at M4G3+W3W Mosquee des trois portes, Avineda De Kortoba, Kairouan. This top-rated destination is perfect for Mosquee lovers and offers a range of Mosquee, Attraction touristique to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Mosqu%C3%A9e+des+trois+portes/data=!4m7!3m6!1s0x12fdc54788825125:0xbc8ca27b4e3ea5b1!8m2!3d35.6773608!4d10.1027013!16s%2Fg%2F120p4gml!19sChIJJVGCiEfF_RIRsaU-TnuijLw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Mosque of the Three Doors is a renowned mosque located in Kairouan, Tunisia. Its notable feature is its three intricately designed doors, which add historical and architectural significance to the city. Situated at coordinates (35.6727967, 10.0949059), the mosque offers a peaceful and fascinating experience for visitors interested in Islamic architecture and religious history.</t>
         </is>
       </c>
     </row>
@@ -7074,7 +7018,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in kairouan, check out Mausolee Sidi Amor Abada located at Rue Sidi Gaid, Kairouan. This top-rated destination is perfect for Musee lovers and offers a range of Musee to choose from. With a rating of 3.8, it's a must-visit spot for exploring Musee options. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit this link: https://www.google.com/maps/place/Mausole%C3%A9+Sidi+Amor+Abada/data=!4m7!3m6!1s0x12fdc516e3b3cc3d:0x99801d7961d6b896!8m2!3d35.6769869!4d10.0950488!16s%2Fg%2F122cnhq7!19sChIJPcyz4xbF_RIRlrjWYXkdgJk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Sidi Amor Abada Mausoleum is a museum located in Kairouan, Tunisia. It offers a glimpse into the history and culture of the region. The mausoleum is named after Sidi Amor Abada, a Sufi saint who lived in Kairouan in the 18th century. The museum houses a collection of artifacts and documents related to Sidi Amor Abada's life and teachings. It is located at the coordinates (35.6727967, 10.0949059) and has received a rating of 3.8 from visitors.</t>
         </is>
       </c>
     </row>
@@ -7177,7 +7121,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Salle des fetes Bensikali located at Route Kairouan, M'saken. This top-rated destination is perfect for Discotheque lovers and offers a range of Discotheque to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.7333242, 10.5756812. For more details, visit their website at or call them at 98 451 658.</t>
+          <t>Salle des Fêtes Bensikali, located near the city of M'saken (latitude: 35.7333242, longitude: 10.5756812), offers a lively nightlife experience as a renowned discotheque. The venue features a vibrant atmosphere, attracting guests with its captivating music and dance floor. With an impressive rating of 4.5 out of 5 based on reviews, Bensikali has established itself as a popular destination for entertainment seekers.</t>
         </is>
       </c>
     </row>
@@ -7272,9 +7216,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Restaurant Keftaji Kairouan located at VJ74+GGW Restaurant Keftaji Kairouan, Hammam Sousse. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.51295, 9.98453. For more details, visit their link at https://www.google.com/maps/place/Restaurant+Keftaji+Kairouan/data=!4m7!3m6!1s0x12fd8b85b4fbf9e3:0x8ce55c9e1d32958a!8m2!3d35.8638669!4d10.6063425!16s%2Fg%2F11j3ml8nld!19sChIJ4_n7tIWL_RIRipUyHZ5c5Yw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Restaurant Keftaji Kairouan is a top-rated restaurant located in Hammam Sousse, Tunisia. It specializes in traditional Tunisian cuisine, offering a wide range of dishes made with fresh, local ingredients. The restaurant is situated at coordinates (35.51295, 9.98453) and is easily accessible by car or public transportation.</t>
         </is>
       </c>
     </row>
@@ -7381,10 +7323,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a delicious meal, check out Essiguifa located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur.
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of dishes to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on - . For more details, visit their website
-at https://www.facebook.com/ESSIGUIFADETOZEUR%3Fmibextid%3DZbWKwL</t>
+          <t>**Essiguifa** is a highly-rated (4.8) Tunisian restaurant located in the heart of Tozeur, on Av. de Kairouan. Open from 8am to midnight, it offers a cozy atmosphere and a menu featuring traditional Tunisian cuisine. With 22 positive reviews, it's a popular spot for locals and visitors alike. Its convenient location makes it a great place to stop for a meal or a coffee break while exploring the city.</t>
         </is>
       </c>
     </row>
@@ -7487,9 +7426,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to eat, check out El Brija Restaurant located at Av. Oqba Ibn Nafaa, Kairouan 3100. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Cafe to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at https://www.google.com/maps/place/El+Brija+Restaurant/data=!4m7!3m6!1s0x12fdc53f9d88d51f:0xf82241c7bdbfe42f!8m2!3d35.6828918!4d10.1039736!16s%2Fg%2F1hf2vc0dy!19sChIJH9WInT_F_RIRL-S_vcdBIvg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 806 090.</t>
+          <t>El Brija Restaurant, located in Kairouan (coordinates: 35.654691, 10.0913087), offers a diverse menu including couscous, pizza, and beverages at reasonable prices. With its convenient location near the city's main mosque, El Brija Restaurant caters to both locals and tourists. Featuring a cafe atmosphere with a terrace, it's an excellent spot for casual dining or coffee breaks.</t>
         </is>
       </c>
     </row>
@@ -7588,7 +7525,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in kairouan, Dar Abderrahman Zarrouk is a top-rated Restaurant located at M4H2+P4J Dar Abderrahman Zarrouk, Rue Darel Bey. With a rating of 4.3 based on 141 reviews, it's a go-to spot for locals and tourists alike. For more details, you can call them at 94 670 670.</t>
+          <t>Dar Abderrahman Zarrouk, located in the heart of Kairouan (35.6727967, 10.0949059), is a traditional Tunisian restaurant renowned for its authentic cuisine and warm atmosphere. With a rating of 4.3, it offers a delightful culinary experience that reflects the richness and flavors of the region.</t>
         </is>
       </c>
     </row>
@@ -7691,9 +7628,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for something fun to do, check out Texas Fastfood located at M3CX+H83, Texas Fastfood, Kairouan. 
-This top-rated destination is perfect for fastfood lovers and offers a range of fastfood to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 35.6807444, 10.0996728. For more details, visit their website at https://www.google.com/maps/place/Texas+Fastfood/data=!4m7!3m6!1s0x12fdc549381a7a89:0xc9caaa3d4e68350!8m2!3d35.6713923!4d10.0983037!16s%2Fg%2F1hg4w6r7w!19sChIJiXoaOEnF_RIRUIPm1KOqnAw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 77 228 080.</t>
+          <t>Texas Fastfood is a fast-food restaurant located in Kairouan, Tunisia. It offers a variety of fast-food options, including burgers, fries, and chicken. The restaurant is open from 9:00am to 10:00pm, and is closed on Sundays. Texas Fastfood has a rating of 4.1 out of 5 stars on Google, and is known for its friendly staff and delicious food.</t>
         </is>
       </c>
     </row>
@@ -7800,11 +7735,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated restaurant, check out GO Cafe located at GO Cafe, Medina de, Rue Mouley Taieb, en face de la Mosquee des Trois Portes Cite Jraba, Kairouan 3100. 
-This destination is perfect for Restaurant and Cafe lovers. 
-With a rating of 4.8, it's a must-visit spot. 
-It's open during these hours: 10:00-00:00.
-To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at http://www.gocafe.tn/ or call them at 24 101 831.</t>
+          <t>Located in the heart of Kairouan (coordinates: 35.654691, 10.0913087), the GO Cafe is a popular spot among locals and tourists alike. With a focus on delicious cuisine, the cafe offers a wide range of dishes, including traditional Tunisian delicacies. Situated near the famous Three-Door Mosque (Mosquee des Trois Portes), the cafe's convenient location and cozy atmosphere make it a great place to relax and enjoy the local culture.</t>
         </is>
       </c>
     </row>
@@ -7907,9 +7838,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Chez Mamie located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Restaurant brunch to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: (35.654691, 10.0913087). For more details, visit their website at https://www.google.com/maps/place/Chez+Mamie/data=!4m7!3m6!1s0x12fdc53f3fbd1c6d:0x935d72bab4f492f8!8m2!3d35.682578!4d10.103667!16s%2Fg%2F11c76n042j!19sChIJbRy9Pz_F_RIR-JL0tLpyXZM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 333 411.</t>
+          <t>Chez Mamie is a cafe in Kairouan, Tunisia. It has a 4.4-star rating on Google, and is known for its smoothies and proximity to the Great Mosque of Kairouan. The cafe is open from 8am to 11pm, and is located at 270 rue om iyadh houmet jemaa kairouan, Kairouan 3100.</t>
         </is>
       </c>
     </row>
@@ -8008,9 +7937,8 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in kairouan, check out Saraya al bey Restaurant located at M4H3+HMG Saraya al bey, Rue El Kedidi, Kairouan. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.678709970301, 10.103632375538. For more details, call them at 77 258 034.</t>
+          <t>**Saraya Al Bey**
+Saraya Al Bey is a popular restaurant located in Kairouan, Tunisia (Latitude: 35.678709970301, Longitude: 10.103632375538). It offers a diverse menu, specializing in traditional cuisine, and provides a cozy ambiance for dining. With a 4.0 rating based on 47 reviews, Saraya Al Bey is a well-received dining destination in Kairouan.</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8041,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a top-rated restaurant, check out Dar Lella Habiba located at Rue Okba Ibn Nafaa. This excellent destination that is perfect for Restaurant lovers offers a range of Restaurant categories to choose from. With a 4.5 rating, it's a must-visit spot. It's open during these hours: 08:00-20:30. To get there, use these GPS coordinates: 35.680789525406, 10.103936021759. For more details, visit their website at https://www.google.com/maps/place/Dar+Lella+Habiba/data=!4m7!3m6!1s0x12fdc557fe694525:0xc02fe19deb4ece47!8m2!3d35.6818056!4d10.1044466!16s%2Fg%2F11r27mk80x!19sChIJJUVp_lfF_RIRR85O653hL8A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 609 695.</t>
+          <t>Dar Lella Habiba is a restaurant located in Kairouan, Tunisia, offering a menu focused on couscous. The restaurant is in the city center, near the Great Mosque of Kairouan, and offers a beautiful view of the city. With a rating of 4.5 based on 33 reviews, the restaurant is highly appreciated for its delicious food, friendly service, and beautiful setting.</t>
         </is>
       </c>
     </row>
@@ -8220,8 +8148,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Restaurant de sundae, check out Ci Gusta Kairouan located at Av. Mohamed Ibn Sahnoun. With a rating of 4.0, it's a must-visit spot. 
-It's open during these hours: 08:30-22:00. To get there, use these GPS coordinates: 35.673872158686, 10.107140747335. For more details, visit their website at http://www.cigusta.com/ or call them at 25 450 864.</t>
+          <t>Ci Gusta Kairouan, located at Av. Mohamed Ibn Sahnoun, is a renowned restaurant specializing in sundaes and other delectable treats. Situated at (35.673872158686, 10.107140747335), this eatery has garnered a solid 4.0 rating based on 32 reviews, with patrons particularly praising its pizzas and waffles. Ci Gusta Kairouan is open from 8:30 am to 10:00 pm daily and welcomes guests to savor its culinary delights.</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8247,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Piccolo Mondo located at Piccolo Mondo, Av. Ibn El-Jazzar, Kairouan 3100. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Pizzeria to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 35.6804366, 10.0983523. For more details, visit their website or call them at 29 803 564.</t>
+          <t>Piccolo Mondo, located at Av. Ibn El-Jazzar in Kairouan, Tunisia, is a popular restaurant offering a variety of dishes, with a focus on pizzas. It has received an impressive rating of 4.0 based on 27 reviews. The restaurant offers a cozy ambiance and friendly service, making it a great choice for a casual dining experience.</t>
         </is>
       </c>
     </row>
@@ -8423,7 +8350,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a top-rated Restaurant, check out Mama chippo located at Rue cheikh Mohamed El Barak, Kairouan. This popular destination with a rating of 4.0 is a must-visit spot for Restaurant lovers. It's open during these hours: 11:00-23:00, but closed on lundi. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>**Mama Chippo** is a renowned restaurant in Kairouan, renowned for its mouthwatering cuisine. It's conveniently located at Rue cheikh Mohamed El Barak and is easily accessible. The eatery operates daily except Mondays and welcomes customers from 11:00 AM to 11:00 PM. Its menu and ambiance make it an excellent destination for dinner with friends or family.</t>
         </is>
       </c>
     </row>
@@ -8526,9 +8453,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Brothers' Food located at 8 Rue 13 Aout 1956, Kairouan. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.672639873497, 10.104273600757. For more details, visit their website at https://www.facebook.com/112883803920737/ or call them at 27 690 464.</t>
+          <t>Brothers' Food, located in Kairouan (Tunisia), is a fast food restaurant that offers a 4-star rated dining experience. With 23 reviews on Google, it's a popular spot among locals.</t>
         </is>
       </c>
     </row>
@@ -8631,9 +8556,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a delicious pizza experience, check out Mecano Pizza located at M4C2+8QJ Mecano Pizza, Kairouan. 
-This top-rated Pizzeria is perfect for pizza lovers and offers a range of pizza options to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Mecano+Pizza/data=!4m7!3m6!1s0x12fdc5801e445bd1:0xb3f5f90c1040158b!8m2!3d35.6708324!4d10.1018774!16s%2Fg%2F11gm8hk49g!19sChIJ0VtEHoDF_RIRixVAEAz59bM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 285 757.</t>
+          <t>Mecano Pizza, nestled in Kairouan at the coordinates (35.6727967, 10.0949059), is a renowned pizzeria known for its delectable offerings. Operating from 9 AM to midnight, it's a popular destination for pizza enthusiasts. With a remarkable rating of 4.6 and 14 positive reviews, Mecano Pizza boasts a reputation for serving exceptional pizzas.</t>
         </is>
       </c>
     </row>
@@ -8740,9 +8663,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out First Time Pizzeria located at M4F3+775 First Time Pizzeria, Rue Moncef Bey, Kairouan. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.673117610551, 10.103166826196. For more details, visit their website at https://m.facebook.com/firsttimepizzeria/ or call them at 29 622 973.</t>
+          <t>First Time Pizzeria is a restaurant located in Kairouan, Tunisia, with a 4.6 rating based on 10 reviews. It offers a variety of dishes and is open from 9:00 am to 10:00 pm every day. The restaurant's main category is Restaurant, and its website is https://m.facebook.com/firsttimepizzeria/.</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8762,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Boura aldemeshqi located at 6000 Av. Abi Zamaa El Balaoui. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on dimanche. To get there, use these GPS coordinates: 35.676813513298, 10.093464437173. For more details, visit their website at https://www.google.com/maps/place/Boura+aldemeshqi/data=!4m7!3m6!1s0x12fdc524e3c431cf:0x1607f522c7175880!8m2!3d35.6753947!4d10.0943312!16s%2Fg%2F11mn853b9l!19sChIJzzHE4yTF_RIRgFgXxyL1BxY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan .</t>
+          <t>Boura aldemeshqi is a renowned restaurant in Kairouan, situated at 6000 Av. Abi Zamaa El Balaoui. Open 24 hours a day except on Sundays, it specializes in Syrian cuisine, highly praised by customers, as evidenced by its impressive rating of 4.6. The restaurant's exact location is at (35.676813513298, 10.093464437173), making it easily accessible within the city.</t>
         </is>
       </c>
     </row>
@@ -8944,9 +8865,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Vintage bistro located at Vintage bistro, Kairouan 3100. 
-This top-rated destination is perfect for Bistro lovers and offers a range of Bistro to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 07:30-00:00, but closed on None. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website or call them at 52 486 841.</t>
+          <t>Vintage Bistro in Kairouan, Tunisia, is a cozy eatery offering a delightful dining experience. Nestled at coordinates (35.654691, 10.0913087) in the heart of the city, this bistro serves up mouthwatering dishes that showcase local flavors and international influences. Vintage Bistro is highly rated with 4.9 stars based on 8 customer reviews, highlighting its exceptional quality and service.</t>
         </is>
       </c>
     </row>
@@ -9045,7 +8964,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a delicious meal, check out Number One, located at M4M3+FHQ. This highly-rated restaurant serves up delectable fast food options that are sure to satisfy your cravings. With a rating of 4.0, it's a must-visit spot for food lovers. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Number+One/data=!4m7!3m6!1s0x12fdc53f907d0161:0xf466724609b938a2!8m2!3d35.6837172!4d10.103985!16s%2Fg%2F11fy4t5mh3!19sChIJYQF9kD_F_RIRoji5CUZyZvQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Number One, a high-rated fast-food joint, is located on the coordinates (35.6727967, 10.0949059) in Kairouan, Tunisia. With 8 reviews, it has an overall score of 4.0, suggesting a popular and well-received establishment among locals and visitors.</t>
         </is>
       </c>
     </row>
@@ -9144,7 +9063,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>Looking for a delicious dining experience in Kairouan? Wood'Z, located at Kairouan, is a top-rated restaurant with a 4.8 rating. It offers a range of cuisines to choose from, making it perfect for any foodie. Open during regular hours, Wood'Z is a must-visit spot. For more details, call them at 99 444 441.</t>
+          <t>Wood'Z is a restaurant located in Kairouan, Tunisia, at the coordinates (35.6727967, 10.0949059). It has a rating of 4.8 out of 5 based on 8 reviews. The restaurant's owner is "Wood'Z (proprietaire)". Unfortunately, there is no detailed description or information about the services or cuisine offered by Wood'Z.</t>
         </is>
       </c>
     </row>
@@ -9247,9 +9166,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) located at M39Q+FFW Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy), Unnamed Road, Kairouan. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Uncle+Hassine+%28Kafteji%29+%D9%85%D8%B7%D8%B9%D9%85+%D8%B9%D9%85+%D8%AD%D8%B3%D9%8A%D9%86+%28%D9%83%D9%81%D8%AA%D8%A7%D8%AC%D9%8A%29%E2%80%AD/data=!4m7!3m6!1s0x12fdc5e20b16bb93:0xfde43df9132d598c!8m2!3d35.6687489!4d10.0886957!16s%2Fg%2F11rwsv7fnt!19sChIJk7sWC-LF_RIRjFktE_k95P0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 034 676.</t>
+          <t>Uncle Hassine (Kafteji) mT`m `m Hsyn (kftjy) is a fast-food restaurant located in Kairouan, Tunisia. It has a rating of 4.7 stars based on 7 reviews. The restaurant is known for its kafteji, a traditional Tunisian dish made with lamb or beef. Uncle Hassine is located at 35.6727967, 10.0949059 and is open daily from 8:00 AM to midnight, except on Sundays.</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9265,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great place to eat, check out Lablabi Gabssi located at M3HX+87R Lablabi Gabssi, Rue Des Aglabiles. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 08:30-23:00. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>Lablabi Gabssi is a restaurant located in kairouan, Tunisia. Its coordinates are (35.6727967, 10.0949059).</t>
         </is>
       </c>
     </row>
@@ -9451,9 +9368,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great Restaurant, be sure to check out PIZZA NY at M39J+RG5. 
-This 5.0-rated destination offers a range of categories, including Restaurant, making it perfect for all your dining needs. 
-It's open daily from 09:00-22:00, so you can always find time to enjoy a delicious meal. To get there, use these GPS coordinates: (35.6727967, 10.0949059). For more details, call them at 94 873 407.</t>
+          <t>In quaint Kairouan, Tunisia, nestles a culinary gem known as PIZZA NY. Its location, defined by the coordinates (35.6727967, 10.0949059), places it at the heart of the city. With a stellar 5.0 rating based on 7 reviews, this restaurant specializes in offering a tantalizing menu, brimming with flavors that delight the palate. It caters to its patrons from 9:00 AM to 10:00 PM every day, ensuring culinary satisfaction at all hours.</t>
         </is>
       </c>
     </row>
@@ -9552,7 +9467,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in kairouan and seeking something delicious to eat, head over to Restaurant sakka, located on M39X+3MJ Restaurant sakka, Hy mHmd `ly,, Rue de La Liberte, Kairouan. This highly-rated destination is a haven for Restaurant lovers and offers a range of options to choose from. With an impressive rating of 5.0, it's a must-visit spot in the city. To get there, use these GPS coordinates: 35.669994146437, 10.095808475725. For further details, call them at 98 800 314.</t>
+          <t>Restaurant Sakka in Kairouan, Tunisia (35.669994146437, 10.095808475725) is a highly-rated restaurant with a 5.0 rating based on 6 reviews. It is located on Rue de La Liberte, near Hy mHmd `ly,,. Restaurant Sakka is a great place to enjoy a delicious meal in a friendly and welcoming atmosphere.</t>
         </is>
       </c>
     </row>
@@ -9655,9 +9570,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great pizza place, check out NARCO'S located at Sahabi 2, Kairouan 3100. 
-This top-rated destination is perfect for Pizzeria lovers and offers a variety of pizzas to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-22:30. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at https://www.google.com/maps/place/NARCO%27S/data=!4m7!3m6!1s0x12fdc50f6b58d409:0xf58bf536da0679f1!8m2!3d35.6854923!4d10.0888168!16s%2Fg%2F11s5vjf9y8!19sChIJCdRYaw_F_RIR8XkG2jb1i_U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 402 248.</t>
+          <t>With a 4.0-star rating, NARCO'S is a highly-rated Pizzeria situated in the city of Kairouan (coordinates: 35.654691, 10.0913087). It opens from 12:00-22:30 and welcomes customers with its mouthwatering and authentic pizza flavors.</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9673,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out pizzeria l'artista kairouan located at M3MM+8JM pizzeria l'artista kairouan, Unnamed Road, Kairouan. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-20:00, but closed on those days. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/pizzeria+l%27artista+kairouan/data=!4m7!3m6!1s0x12fdc55b5f297aa3:0xb7c02bae2720861c!8m2!3d35.6833493!4d10.084034!16s%2Fg%2F11qq3dg6y7!19sChIJo3opX1vF_RIRHIYgJ64rwLc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 284 837.</t>
+          <t>"Pizzeria L'Artiste Kairouan" is a highly-rated (5.0 stars) pizzeria located in Kairouan (coordinates: 35.6727967, 10.0949059). It offers a wide variety of pizzas and operates daily from 10:00 AM to 8:00 PM. The pizzeria's phone number is 21 284 837, and its exact address is M3MM+8JM, Unnamed Road, Kairouan. Its featured image on Google Maps showcases the pizzeria's inviting ambiance.</t>
         </is>
       </c>
     </row>
@@ -9859,7 +9772,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Delight Lebanon located at M4F2+HM6 Delight Lebanon, Bd H Bourguilla, Kairouan. This restaurant is perfect for Restaurant lovers. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website or call them at 23 326 803.</t>
+          <t>Delight Lebanon, a restaurant located in Kairouan, offers tantalizing Lebanese cuisine to satisfy your cravings. Situated at the coordinates (35.6727967, 10.0949059), you can easily find this delightful spot to savor the flavors of Lebanon.</t>
         </is>
       </c>
     </row>
@@ -9962,9 +9875,15 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a bite to eat, check out mT`m dr l`yl@ at 1452 Rue de Lybie, Kairouan. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on vendredi. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website or call them at 26 883 066.</t>
+          <t>**Restaurant mT`m dr l`yl@**
+mT`m dr l`yl@ is a highly rated restaurant located in Kairouan, Tunisia. It offers a variety of dining options, including traditional Tunisian cuisine. The restaurant is known for its friendly owner and excellent service. It is open from 8 am to 10 pm daily, except for Fridays.
+**Highlights:**
+* Convenient location in the center of the city
+* Accommodating staff and pleasant atmosphere
+* Delicious selection of Tunisian dishes
+**Coordinates:**
+* Latitude: 35.6727967
+* Longitude: 10.0949059</t>
         </is>
       </c>
     </row>
@@ -10067,7 +9986,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a great Restaurant, check out restaurant salem ( ademie) mT`m lslm at M3JH+WC4, RR99. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.690904194799, 10.055042442587. For more details, call them at 97 868 511.</t>
+          <t>Restaurant Salem is a highly-rated dining establishment located in Kairouan, Tunisia, offering a delectable culinary experience with a 4.0 rating based on 2 reviews. The restaurant is renowned for its authentic cuisine, served in a welcoming ambiance. Conveniently situated at M3JH+WC4 restaurant salem ( ademie) mT`m lslm, RR99, Kairouan, the restaurant's coordinates are 35.690904194799, 10.055042442587. You can reach Restaurant Salem by phone at 97 868 511 for reservations or inquiries.</t>
         </is>
       </c>
     </row>
@@ -10166,7 +10085,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and are craving for some quick food to grab, check out El Gringo Fast Food located at Rue Oum El Mouminin Aicha. This top-rated spot has a perfect rating of 5.0 and is a must-visit for fast food lovers. It's open every day from 09:00-22:00. For more details, visit their website at https://www.google.com/maps/place/El+Gringo+Fast+Food/data=!4m7!3m6!1s0x12fdc5d2f5c4e10b:0x8911984749516e5d!8m2!3d35.6811908!4d10.0983712!16s%2Fg%2F11hzmt29y4!19sChIJC-HE9dLF_RIRXW5RSUeYEYk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
+          <t>El Gringo Fast Food is a fast food restaurant located in Kairouan, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and fries. The restaurant is open from 9am to 10pm, and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -10273,9 +10192,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Ka3boura Fast Food located at rue tarbia. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 35.654691, 10.0913087. For more details, visit their website at https://www.facebook.com/Ka3bouraFastFood/ or call them at 26 264 830.</t>
+          <t>Ka3boura Fast Food, located in Kairouan, Tunisia, is a popular restaurant known for its excellent ratings and delicious food. It is conveniently situated at rue tarbia, making it easily accessible to locals and visitors alike. The restaurant opens daily from 7:00 AM to 11:00 PM, offering a wide range of dining options to satisfy every craving. Whether you're looking for a quick bite or a leisurely meal, Ka3boura Fast Food has something for everyone.</t>
         </is>
       </c>
     </row>
@@ -10374,7 +10291,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in Kairouan and looking for a top-rated restaurant, check out Restaurant Weld El Bey located at Av. Kairouan, El Mourouj. With a rating of 4.1, it's a must-visit spot for restaurant lovers. It's open during these hours: 11:00-22:00. To get there, use these GPS coordinates: 36.7366706, 10.210515. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Weld+El+Bey/data=!4m7!3m6!1s0x12fd379ce8c6b909:0xe989f7a56e5f6005!8m2!3d36.7370627!4d10.2109565!16s%2Fg%2F11g197th50!19sChIJCbnG6Jw3_RIRBWBfbqX3iek?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Restaurant Weld El Bey is a 4.1-rated restaurant located in Av. Kairouan, El Mourouj. It serves multiple cuisines and is open from 11:00 AM to 10:00 PM daily. The restaurant's main category is Restaurant, and its coordinates are (36.7366706, 10.210515).</t>
         </is>
       </c>
     </row>
@@ -10481,7 +10398,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Essiguifa located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on . To get there, use these GPS coordinates: 33.921574605214, 8.138131631011. For more details, visit their website at https://www.facebook.com/ESSIGUIFADETOZEUR%3Fmibextid%3DZbWKwL or call them at 51 396 397.</t>
+          <t>Essiguifa is a Tunisian restaurant located at W4CQ+Q3M Essiguifa, Av. de Kairouan, Tozeur. It is open from 8am to midnight, and is closed on no days of the week. The restaurant has a rating of 4.8 out of 5 stars, and has received 22 reviews. Essiguifa is also known for its café, which has been mentioned in 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -10576,7 +10493,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a place to travel, check out Station louage located at Station louage, Kairouan. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.6801167, 10.0864989.</t>
+          <t>"Station louage" is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located at (35.6801167, 10.0864989), making it easily accessible to travelers.</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10588,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Gare routiere (Autobus) located at Gare routiere (Autobus), Kairouan. This popular destination is perfect for Gare routiere lovers. With a rating of 3.2, it's a must-visit spot. Use these GPS coordinates to get there: (35.6727967, 10.0949059).</t>
+          <t>The Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers, offering bus services to various destinations in the region. The bus station is well-maintained and organized, with clear signs and helpful staff to assist passengers.</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10683,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a Gare routiere, check out Station louage located at Station louage, Kairouan. This top-rated destination offers a range of categories to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.6801167, 10.0864989.</t>
+          <t>Located at (35.6801167, 10.0864989) in Kairouan, this well-rated (3.9/5 out of 28 reviews) bus station named Station louage offers a variety of services and amenities to its customers.</t>
         </is>
       </c>
     </row>
@@ -10861,9 +10778,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a bus station, check out Gare routiere (Autobus) located at Gare routiere (Autobus), Kairouan. 
-This bus station is perfect for transportation lovers and offers a range of services to choose from. 
-With a rating of 3.2, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gare+routi%C3%A8re+%28Autobus%29/data=!4m7!3m6!1s0x12fdc55bfe9b4a7f:0x3d0a6e807ed031de!8m2!3d35.6816101!4d10.0865018!16s%2Fg%2F1tdty91l!19sChIJf0qb_lvF_RIR3jHQfoBuCj0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at phone.</t>
+          <t>Gare routière Kairouan is a bus station located in Kairouan, Tunisia. It is a convenient transportation hub for travelers looking to explore the city and its surroundings. The station offers a range of bus services, connecting Kairouan to major cities and towns across the country. Its strategic location at (35.6727967, 10.0949059) makes it easily accessible to visitors.</t>
         </is>
       </c>
     </row>
@@ -10958,7 +10873,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something related to Gare routiere, check out Station louage. This top-rated destination is perfect for Gare routiere lovers and is open during weekday_timing. It's got a rating of 3.9, so it's definitely worth checking out! You can find it at Station louage, Kairouan. To get there, use these GPS coordinates: 35.6801167, 10.0864989. For more details, visit their website at link or call them at phone.</t>
+          <t>Station louage is a bus station located in Kairouan, Tunisia. It is situated at coordinates (35.6801167, 10.0864989) and offers bus services to various cities. The station has received 28 reviews and has a rating of 3.9 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -11057,9 +10972,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in kairouan, check out mHT@ syrt llwj station louage located at M3HQ+P26 mHT@ syrt llwj station louage, Cite el hajjem, Kairouan. 
-This top-rated destination is perfect for Service de transport lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>Located in Cite el hajjem, Kairouan, this 4.5-rated transportation service is open 24 hours a day. With a convenient location at M3HQ+P26 and the primary category being transportation, this establishment is a hub for travelers.</t>
         </is>
       </c>
     </row>
@@ -11154,7 +11067,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a Gare routiere, check out Station louage located at Station louage, Kairouan. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 3.9, it's a must-visit spot. To get there, use these GPS coordinates: 35.6801167, 10.0864989. For more details, visit their website at https://www.google.com/maps/place/Station+louage/data=!4m7!3m6!1s0x12fdc55bae30155f:0x9dd2b8fcb6de775e!8m2!3d35.679328!4d10.0885133!16s%2Fg%2F1tjh1ghh!19sChIJXxUwrlvF_RIRXnfetvy40p0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28.</t>
+          <t>The **Station louage** in Kairouan, Tunisia (35.6801167, 10.0864989), offers bus transportation services. With a rating of 3.9 based on 28 reviews, it has a good reputation among users.</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11162,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out Gare routiere (Autobus) located at Gare routiere (Autobus), Kairouan. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 3.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/Gare+routi%C3%A8re+%28Autobus%29/data=!4m7!3m6!1s0x12fdc55bfe9b4a7f:0x3d0a6e807ed031de!8m2!3d35.6816101!4d10.0865018!16s%2Fg%2F1tdty91l!19sChIJf0qb_lvF_RIR3jHQfoBuCj0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Gare routiere (Autobus) is a bus station located in Kairouan, Tunisia. It offers bus services to various destinations within the country. The station is conveniently located in the city center, making it easily accessible for travelers. The station has a rating of 3.2 stars based on 9 reviews. Its coordinates are 35.6727967, 10.0949059.</t>
         </is>
       </c>
     </row>
@@ -11344,9 +11257,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a place specialized in Arret de transports en commun, check out mHT@ lnql lryfy at Kairouan. 
-This top-rated destination is perfect for Arret de transports en commun enthusiasts and offers a variety of Arret de transports en commun to select from. 
-With a rating of 3.8, it's a must-visit spot. For more information, visit their website at https://www.google.com/maps/place/%D9%85%D8%AD%D8%B7%D8%A9+%D8%A7%D9%84%D9%86%D9%82%D9%84+%D8%A7%D9%84%D8%B1%D9%8A%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fdc54cbf1151ed:0xfc29f8311fa7adae!8m2!3d35.6658541!4d10.0962344!16s%2Fg%2F11_qycbxg!19sChIJ7VERv0zF_RIRrq2nHzH4Kfw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Kairouan, Tunisia, mHT@ lnql lryfy is a public transportation stop. It offers convenient access to local transportation services, making it a valuable resource for commuters and travelers alike. The stop is situated at the coordinates (35.6727967, 10.0949059), making it easily accessible from various parts of the city.</t>
         </is>
       </c>
     </row>
@@ -11441,7 +11352,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for an Arret de bus, check out Aouani located at Av. de la Republique, Kairouan. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Aouani/data=!4m7!3m6!1s0x12fdc5432091f485:0x19d1b657c7bc01cb!8m2!3d35.6838646!4d10.0931002!16s%2Fg%2F11_rhc6n2!19sChIJhfSRIEPF_RIRywG8x1e20Rk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Aouani is a well-rated bus stop in Kairouan, Tunisia. It is located at the intersection of Av. de la Republique and Aouani. It is a popular place for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -11536,7 +11447,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out `qb@ located at Boulevard H Chaker, Kairouan. This top-rated destination is perfect for Arret de bus lovers and offers Arret de bus to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at or call them at .</t>
+          <t>This bus stop, located in Kairouan (35.6727967, 10.0949059), is highly rated by users, with a score of 5.0 out of 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -11631,7 +11542,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for something fun to do, check out lmnSwr@ 1 located at lmnSwr@ 1, Kairouan. This top-rated destination is perfect for Arret de bus lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.6727967, 10.0949059. For more details, visit their website at https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%86%D8%B5%D9%88%D8%B1%D8%A9+1%E2%80%AD/data=!4m7!3m6!1s0x12fddaada4dcb551:0x91037b3228cab30f!8m2!3d35.6619425!4d10.0900438!16s%2Fg%2F1hdz974xr!19sChIJUbXcpK3a_RIRD7PKKDJ7A5E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Discover the bus stop called "lmnSwr@ 1", conveniently located in Kairouan. With a 5-star rating from 1 review, this bus stop offers a stress-free way to navigate the city. Situated at the coordinates (35.6727967, 10.0949059), it's easily accessible for travelers and locals alike.</t>
         </is>
       </c>
     </row>
@@ -11726,7 +11637,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in kairouan and looking for a convenient transportation option, check out Ibn Rashiq bus station at Boulevard H Chaker, Kairouan. This top-rated bus station is perfect for travelers and offers a range of services. With a rating of 3.0, it's a reliable spot for your transportation needs. To get there, use these GPS coordinates: 35.6727967, 10.0949059.</t>
+          <t>The Ibn Rashiq bus station, located in Kairouan with the coordinates (35.6727967, 10.0949059), is a transportation service that offers reliable and efficient bus transportation to various destinations.</t>
         </is>
       </c>
     </row>
